--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -44,13 +44,13 @@
     <t>Testilker01</t>
   </si>
   <si>
-    <t>CompanyName24</t>
-  </si>
-  <si>
-    <t>workemail24@workemail.com.tr</t>
-  </si>
-  <si>
-    <t>+458325733886</t>
+    <t>CompanyName26</t>
+  </si>
+  <si>
+    <t>workemail26@workemail.com.tr</t>
+  </si>
+  <si>
+    <t>+458325733884</t>
   </si>
 </sst>
 </file>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
